--- a/earlywarning-pom/earlywarning-config/src/baf-instances/41_Inst_Predictive_Model_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/41_Inst_Predictive_Model_ALEX.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione ALEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="12380" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27960" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Predictive_Model" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,6 +550,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11239500" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -651,6 +699,54 @@
           <a:endParaRPr lang="it-IT"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -758,6 +854,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -862,6 +1006,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -963,6 +1155,54 @@
           <a:endParaRPr lang="it-IT"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12268200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1269,21 +1509,21 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1541,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1375,7 +1615,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1418,17 +1658,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1680,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1479,17 +1719,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="7" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1740,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1536,17 +1776,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="14" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="14" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1804,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1623,17 +1863,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1643,7 +1883,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1681,7 +1921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1711,18 +1951,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1792,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1827,7 +2067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +2102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -1897,7 +2137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1921,7 +2161,7 @@
       </c>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +2185,7 @@
       </c>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +2209,7 @@
       </c>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2233,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2257,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2047,7 +2287,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2311,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2335,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2359,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2143,7 +2383,7 @@
       </c>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2407,7 @@
       </c>
       <c r="K18"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2202,7 +2442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2466,7 @@
       </c>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2490,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2274,7 +2514,7 @@
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -2309,7 +2549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2573,7 @@
       </c>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2597,7 @@
       </c>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2392,7 +2632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2656,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2680,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2464,7 +2704,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2728,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2512,7 +2752,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2776,7 @@
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2560,7 +2800,7 @@
       </c>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2824,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2608,7 +2848,7 @@
       </c>
       <c r="K36"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
